--- a/bridge/example/instance.xlsx
+++ b/bridge/example/instance.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>財產編號</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>Penny</t>
+  </si>
+  <si>
+    <t>Tony-IBM</t>
+  </si>
+  <si>
+    <t>IBM-T61</t>
+  </si>
+  <si>
+    <t>Tony</t>
   </si>
 </sst>
 </file>
@@ -147,16 +156,20 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="165" xfId="0">
       <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -177,84 +190,123 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
-      <selection activeCell="H5" activeCellId="0" pane="topLeft" sqref="H5"/>
+      <selection activeCell="L11" activeCellId="0" pane="topLeft" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.85"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.69756097560976"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="14.4634146341463"/>
+    <col collapsed="false" hidden="false" max="6" min="4" style="0" width="8.69756097560976"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.1658536585366"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.69756097560976"/>
+  </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="1">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.4" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>300000</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>30000</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="3" t="n">
         <v>41503</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
+        <v>2106</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.85" outlineLevel="0" r="3">
+      <c r="A3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>34000</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>3000</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="0" t="n">
         <v>2106</v>
       </c>
     </row>
